--- a/0503_Assignment/AStar 손 실습.xlsx
+++ b/0503_Assignment/AStar 손 실습.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11C7A62-DF1F-46AD-9F72-20139523BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="57480" yWindow="7995" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -32,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,12 +104,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,9 +245,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,15 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,34 +278,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,7 +333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -386,7 +377,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="오른쪽 화살표 4"/>
+        <xdr:cNvPr id="5" name="오른쪽 화살표 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -440,7 +437,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="오른쪽 화살표 5"/>
+        <xdr:cNvPr id="6" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -494,7 +497,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="오른쪽 화살표 6"/>
+        <xdr:cNvPr id="7" name="오른쪽 화살표 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -548,7 +557,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="오른쪽 화살표 7"/>
+        <xdr:cNvPr id="8" name="오른쪽 화살표 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -602,7 +617,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="오른쪽 화살표 8"/>
+        <xdr:cNvPr id="9" name="오른쪽 화살표 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -656,7 +677,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="오른쪽 화살표 9"/>
+        <xdr:cNvPr id="10" name="오른쪽 화살표 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -710,7 +737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="오른쪽 화살표 10"/>
+        <xdr:cNvPr id="11" name="오른쪽 화살표 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -764,66 +797,18 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="오른쪽 화살표 11"/>
+        <xdr:cNvPr id="12" name="오른쪽 화살표 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
           <a:off x="2928939" y="1995487"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="오른쪽 화살표 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="13368337" y="6148388"/>
           <a:ext cx="342900" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -872,7 +857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="오른쪽 화살표 18"/>
+        <xdr:cNvPr id="19" name="오른쪽 화살표 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -926,7 +917,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="오른쪽 화살표 19"/>
+        <xdr:cNvPr id="20" name="오른쪽 화살표 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -980,7 +977,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="오른쪽 화살표 20"/>
+        <xdr:cNvPr id="21" name="오른쪽 화살표 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1034,7 +1037,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="오른쪽 화살표 21"/>
+        <xdr:cNvPr id="22" name="오른쪽 화살표 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1088,7 +1097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="오른쪽 화살표 22"/>
+        <xdr:cNvPr id="23" name="오른쪽 화살표 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1142,7 +1157,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="오른쪽 화살표 23"/>
+        <xdr:cNvPr id="24" name="오른쪽 화살표 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1196,7 +1217,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="오른쪽 화살표 24"/>
+        <xdr:cNvPr id="25" name="오른쪽 화살표 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1250,7 +1277,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="오른쪽 화살표 25"/>
+        <xdr:cNvPr id="26" name="오른쪽 화살표 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1304,7 +1337,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="오른쪽 화살표 26"/>
+        <xdr:cNvPr id="27" name="오른쪽 화살표 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1358,7 +1397,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="오른쪽 화살표 27"/>
+        <xdr:cNvPr id="28" name="오른쪽 화살표 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1412,7 +1457,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="오른쪽 화살표 28"/>
+        <xdr:cNvPr id="29" name="오른쪽 화살표 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1466,7 +1517,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="오른쪽 화살표 29"/>
+        <xdr:cNvPr id="30" name="오른쪽 화살표 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1520,7 +1577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="오른쪽 화살표 30"/>
+        <xdr:cNvPr id="31" name="오른쪽 화살표 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1574,7 +1637,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="오른쪽 화살표 31"/>
+        <xdr:cNvPr id="32" name="오른쪽 화살표 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1628,66 +1697,18 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="오른쪽 화살표 32"/>
+        <xdr:cNvPr id="33" name="오른쪽 화살표 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5334000" y="4267200"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="오른쪽 화살표 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11439525" y="6105525"/>
           <a:ext cx="342900" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1736,7 +1757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="오른쪽 화살표 34"/>
+        <xdr:cNvPr id="35" name="오른쪽 화살표 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1790,7 +1817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="오른쪽 화살표 35"/>
+        <xdr:cNvPr id="36" name="오른쪽 화살표 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1844,7 +1877,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="오른쪽 화살표 36"/>
+        <xdr:cNvPr id="37" name="오른쪽 화살표 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1898,7 +1937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="오른쪽 화살표 37"/>
+        <xdr:cNvPr id="38" name="오른쪽 화살표 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1952,7 +1997,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="오른쪽 화살표 38"/>
+        <xdr:cNvPr id="39" name="오른쪽 화살표 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2006,66 +2057,18 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="오른쪽 화살표 39"/>
+        <xdr:cNvPr id="40" name="오른쪽 화살표 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
           <a:off x="4967289" y="3929062"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="오른쪽 화살표 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="13177838" y="5891212"/>
           <a:ext cx="342900" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2114,7 +2117,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="오른쪽 화살표 44"/>
+        <xdr:cNvPr id="45" name="오른쪽 화살표 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2168,7 +2177,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="오른쪽 화살표 45"/>
+        <xdr:cNvPr id="46" name="오른쪽 화살표 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2222,7 +2237,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="오른쪽 화살표 46"/>
+        <xdr:cNvPr id="47" name="오른쪽 화살표 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2276,7 +2297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="오른쪽 화살표 56"/>
+        <xdr:cNvPr id="57" name="오른쪽 화살표 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2330,7 +2357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="오른쪽 화살표 57"/>
+        <xdr:cNvPr id="58" name="오른쪽 화살표 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2384,7 +2417,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="오른쪽 화살표 58"/>
+        <xdr:cNvPr id="59" name="오른쪽 화살표 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2438,7 +2477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="오른쪽 화살표 59"/>
+        <xdr:cNvPr id="60" name="오른쪽 화살표 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2492,7 +2537,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="오른쪽 화살표 60"/>
+        <xdr:cNvPr id="61" name="오른쪽 화살표 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2533,512 +2584,212 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="오른쪽 화살표 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2535897">
+          <a:off x="8963025" y="2790825"/>
+          <a:ext cx="342900" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="오른쪽 화살표 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19105122">
+          <a:off x="8982075" y="2276475"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374649</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565149</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="오른쪽 화살표 61"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10972800" y="5105400"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="오른쪽 화살표 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11125200" y="5257800"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="오른쪽 화살표 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11277600" y="5410200"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="오른쪽 화살표 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430000" y="5562600"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="8497886" y="2798763"/>
+          <a:ext cx="346075" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="오른쪽 화살표 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11582400" y="5715000"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="오른쪽 화살표 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11734800" y="5867400"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="오른쪽 화살표 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="13635038" y="4976812"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="오른쪽 화살표 68"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="13787438" y="5129212"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="오른쪽 화살표 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="13939838" y="5281612"/>
-          <a:ext cx="342900" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="오른쪽 화살표 70"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="14092238" y="5434012"/>
-          <a:ext cx="342900" cy="180975"/>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="오른쪽 화살표 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13279815">
+          <a:off x="8467725" y="2266950"/>
+          <a:ext cx="314325" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3086,7 +2837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="오른쪽 화살표 71"/>
+        <xdr:cNvPr id="72" name="오른쪽 화살표 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3140,7 +2897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="오른쪽 화살표 72"/>
+        <xdr:cNvPr id="73" name="오른쪽 화살표 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3194,7 +2957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="오른쪽 화살표 73"/>
+        <xdr:cNvPr id="74" name="오른쪽 화살표 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3248,7 +3017,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="오른쪽 화살표 74"/>
+        <xdr:cNvPr id="75" name="오른쪽 화살표 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3302,7 +3077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="오른쪽 화살표 75"/>
+        <xdr:cNvPr id="76" name="오른쪽 화살표 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3356,7 +3137,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="오른쪽 화살표 76"/>
+        <xdr:cNvPr id="77" name="오른쪽 화살표 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3410,7 +3197,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="오른쪽 화살표 77"/>
+        <xdr:cNvPr id="78" name="오른쪽 화살표 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3464,13 +3257,2359 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="오른쪽 화살표 78"/>
+        <xdr:cNvPr id="79" name="오른쪽 화살표 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="2571750" y="1066800"/>
           <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="오른쪽 화살표 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D98125-D28E-4A0D-8582-9072B6EB0BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3282950" y="9839325"/>
+          <a:ext cx="342900" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="오른쪽 화살표 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB745F26-5F9C-4F96-996C-14941F3BC88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2535897">
+          <a:off x="3286125" y="10210799"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="오른쪽 화살표 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917BEB5D-4298-4CB4-B08F-F7F209BF2C72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2535897">
+          <a:off x="4010025" y="12849224"/>
+          <a:ext cx="339725" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="오른쪽 화살표 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14475C5-4D6D-475A-8739-4DCCA6417BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2535897">
+          <a:off x="5362575" y="12858750"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="오른쪽 화살표 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AE47C8-B6F4-41C2-A66C-95EF73072200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19105122">
+          <a:off x="5353049" y="12172951"/>
+          <a:ext cx="342900" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="오른쪽 화살표 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030402EE-CAA8-4F30-9D65-42F4291F9647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19105122">
+          <a:off x="3276600" y="9525000"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="오른쪽 화살표 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9582B8B7-B242-4142-ABAE-4BDBF80959C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19105122">
+          <a:off x="3962400" y="8867775"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="오른쪽 화살표 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCBE616-888D-4DBD-9F7A-4BB909DF6289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19105122">
+          <a:off x="4667250" y="12830175"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>215901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E50A870-8859-4862-A1BD-7A7E2699231D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2916238" y="10256838"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA20896B-1800-4FE4-AFD1-A0E9AAEBF872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2916238" y="10856913"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAFC61B-F307-49DE-B825-3802BF789A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2916238" y="11495088"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1561BCE0-2A95-4747-B05A-F908EA43DDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2925763" y="12180888"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788DA683-6DB5-4277-98B7-783E04AD9869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3602038" y="10856913"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649CA8D8-2239-4194-9BEA-C77E2C116CE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3602038" y="11533188"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2438F715-8666-45A2-B1A2-C88B47211E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3592513" y="12161838"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>196851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A88B00B-D4E8-453A-943F-69AB1596B4CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3592513" y="12866688"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70474D9-523A-4C4E-80EC-09F5D0D0FBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2944813" y="12838113"/>
+          <a:ext cx="349250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E679CB5-4A36-4F3A-8EC7-DAA3FA41348E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="2581274" y="10220324"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B02D34-7555-4CB4-82B6-FAC08440E11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="2552699" y="10915650"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800C8424-2CC4-4556-BE17-61E2E24ADD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="2562225" y="11544299"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D913291-8C6B-4C3F-933C-C1AA0C1B164E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="2590801" y="12172950"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947BACA4-EF6F-4564-AC8F-325F43E31C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="2571750" y="12839699"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="오른쪽 화살표 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB415DA6-C8A6-4477-B980-60BD70D8B8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="12496800"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="오른쪽 화살표 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF04813-4D33-425A-AD44-D880FB260AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="13173075"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="오른쪽 화살표 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F2B13B-9BE2-4002-923C-85870AD14BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="8524875"/>
+          <a:ext cx="342900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B395CB-F05D-44AE-9AAF-01FBCC48ADE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="1885950" y="12163424"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="오른쪽 화살표 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07711E6-DD74-4A16-B7BB-3732A8355E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2571750" y="9839325"/>
+          <a:ext cx="342900" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="오른쪽 화살표 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F46CB3-4461-42B5-B157-7A9D63B3D25E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1854200" y="10512425"/>
+          <a:ext cx="346075" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F01AFF1-1267-49CD-94FC-1AD00D55431A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="1885950" y="10877550"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="오른쪽 화살표 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF9F89B-3FB2-4CE8-B532-CE75B59F314D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7851086">
+          <a:off x="1876425" y="11553824"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="오른쪽 화살표 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49E9519-E8AC-4454-A9B9-FC693B8F6CCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1876425" y="9839325"/>
+          <a:ext cx="342900" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="오른쪽 화살표 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B726C0-D7DB-4F57-A5FA-2EDFA7C31BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4957764" y="12149137"/>
+          <a:ext cx="342900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="오른쪽 화살표 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB76694-834B-4047-B8C0-13A7661F9FB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2938464" y="9510712"/>
+          <a:ext cx="342900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="오른쪽 화살표 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED533027-E691-4DE4-9F02-DAC021458F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3624264" y="8872537"/>
+          <a:ext cx="342900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="오른쪽 화살표 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD38787-3C35-492D-96F7-96C50A0AC84F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2919413" y="8853487"/>
+          <a:ext cx="342900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="오른쪽 화살표 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B660C08-02EB-49F8-9A9A-E696CD2FAF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13279815">
+          <a:off x="1866900" y="8858250"/>
+          <a:ext cx="314325" cy="187325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="오른쪽 화살표 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CD590D-93F4-48BA-A75A-416B5F808309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13279815">
+          <a:off x="2590799" y="9515475"/>
+          <a:ext cx="314325" cy="187325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="오른쪽 화살표 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B81F4B9-1FD1-4313-9A1E-9399B696583F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13279815">
+          <a:off x="1895475" y="9534525"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="오른쪽 화살표 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7B9A8B-4846-4A8A-8BC7-DB2B0028D6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13279815">
+          <a:off x="2571750" y="8858250"/>
+          <a:ext cx="314325" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3768,20 +5907,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -3816,8 +5955,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="28">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
@@ -3832,8 +5971,8 @@
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -3846,8 +5985,8 @@
       <c r="K3" s="6"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="28"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3860,50 +5999,50 @@
       <c r="K4" s="8"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="10">
-        <f>C6+C7</f>
+        <f t="shared" ref="C5:I5" si="0">C6+C7</f>
         <v>118</v>
       </c>
       <c r="D5" s="14">
-        <f>D6+D7</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="14">
-        <f>E6+E7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="F5" s="14">
-        <f>F6+F7</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="G5" s="14">
-        <f>G6+G7</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="H5" s="14">
-        <f>H6+H7</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I5" s="10">
-        <f>I6+I7</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
       <c r="B6" s="6"/>
       <c r="C6" s="12">
         <v>40</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>30</v>
       </c>
       <c r="E6" s="15">
@@ -3925,10 +6064,10 @@
       <c r="K6" s="11"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="28"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <f>INT(SQRT((POWER(C1-I1,2)+(POWER(A5-A20,2))))*10)</f>
         <v>78</v>
       </c>
@@ -3952,7 +6091,7 @@
         <f>INT(SQRT((POWER(H1-I1,2)+(POWER(A5-A20,2))))*10)</f>
         <v>50</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f>INT(SQRT((POWER(I1-I1,2)+(POWER(A5-A20,2))))*10)</f>
         <v>50</v>
       </c>
@@ -3960,8 +6099,8 @@
       <c r="K7" s="13"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
       <c r="B8" s="4"/>
@@ -3988,13 +6127,13 @@
       <c r="K8" s="10"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="28"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>30</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>20</v>
       </c>
       <c r="E9" s="15">
@@ -4010,8 +6149,8 @@
       <c r="K9" s="11"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="28"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16">
         <f>INT(SQRT((POWER(C1-I1,2)+(POWER(A8-A20,2))))*10)</f>
@@ -4036,8 +6175,8 @@
       <c r="K10" s="13"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="28">
         <v>3</v>
       </c>
       <c r="B11" s="4"/>
@@ -4045,14 +6184,14 @@
         <f>C12+C13</f>
         <v>87</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <f>D12+D13</f>
         <v>68</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="24">
         <f>F12+F13</f>
         <v>52</v>
       </c>
@@ -4063,17 +6202,17 @@
       <c r="K11" s="10"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="28"/>
       <c r="B12" s="6"/>
       <c r="C12" s="15">
         <v>20</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>10</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="29">
+      <c r="E12" s="30"/>
+      <c r="F12" s="25">
         <v>10</v>
       </c>
       <c r="G12" s="6"/>
@@ -4083,19 +6222,19 @@
       <c r="K12" s="11"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="28"/>
       <c r="B13" s="8"/>
       <c r="C13" s="16">
         <f>INT(SQRT((POWER(C1-I1,2)+(POWER(A11-A20,2))))*10)</f>
         <v>67</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <f>INT(SQRT((5*5)+(3*3))*10)</f>
         <v>58</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30">
+      <c r="E13" s="31"/>
+      <c r="F13" s="26">
         <f>INT(SQRT((POWER(F1-I1,2)+(POWER(A11-A20,2))))*10)</f>
         <v>42</v>
       </c>
@@ -4106,8 +6245,8 @@
       <c r="K13" s="13"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="28">
         <v>4</v>
       </c>
       <c r="B14" s="4"/>
@@ -4123,7 +6262,7 @@
         <f>E15+E16</f>
         <v>54</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="24">
         <f>F15+F16</f>
         <v>40</v>
       </c>
@@ -4134,8 +6273,8 @@
       <c r="K14" s="10"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="28"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15">
         <v>30</v>
@@ -4146,7 +6285,7 @@
       <c r="E15" s="15">
         <v>10</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="25">
         <v>20</v>
       </c>
       <c r="G15" s="6"/>
@@ -4156,8 +6295,8 @@
       <c r="K15" s="11"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="28"/>
       <c r="B16" s="8"/>
       <c r="C16" s="16">
         <f>INT(SQRT((POWER(C1-I1,2)+(POWER(A14-A20,2))))*10)</f>
@@ -4171,7 +6310,7 @@
         <f>INT(SQRT((4*4)+(2*2))*10)</f>
         <v>44</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="26">
         <f>INT(SQRT((POWER(F4-I4,2)+(POWER(A14-A20,2))))*10)</f>
         <v>20</v>
       </c>
@@ -4182,8 +6321,8 @@
       <c r="K16" s="13"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="28">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -4199,7 +6338,7 @@
         <f>E18+E19</f>
         <v>61</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="24">
         <f>F18+F19</f>
         <v>61</v>
       </c>
@@ -4213,8 +6352,8 @@
       <c r="K17" s="10"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
       <c r="B18" s="6"/>
       <c r="C18" s="15">
         <v>40</v>
@@ -4225,7 +6364,7 @@
       <c r="E18" s="15">
         <v>20</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="25">
         <v>30</v>
       </c>
       <c r="G18" s="6"/>
@@ -4237,8 +6376,8 @@
       <c r="K18" s="11"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="28"/>
       <c r="B19" s="8"/>
       <c r="C19" s="16">
         <f>INT(SQRT((POWER(C1-I1,2)+(POWER(A17-A20,2))))*10)</f>
@@ -4252,12 +6391,12 @@
         <f>INT(SQRT((4*4)+(1*1))*10)</f>
         <v>41</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="26">
         <f>INT(SQRT((3*3)+(1*1))*10)</f>
         <v>31</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f>INT(SQRT((POWER(H1-I1,2)+(POWER(A17-A20,2))))*10)</f>
         <v>14</v>
       </c>
@@ -4266,8 +6405,8 @@
       <c r="K19" s="13"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="28">
         <v>6</v>
       </c>
       <c r="B20" s="4"/>
@@ -4283,50 +6422,50 @@
         <f>E21+E22</f>
         <v>70</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="24">
         <f>F21+F22</f>
         <v>70</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="28">
+      <c r="H20" s="24">
         <f>H21+H22</f>
         <v>110</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="29" t="s">
         <v>1</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="28"/>
       <c r="B21" s="6"/>
       <c r="C21" s="12">
         <v>50</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>40</v>
       </c>
       <c r="E21" s="15">
         <v>30</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="25">
         <v>40</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="29">
+      <c r="H21" s="25">
         <v>100</v>
       </c>
-      <c r="I21" s="26"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="28"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <f>INT(SQRT((POWER(C1-I1,2)+(POWER(A20-A20,2))))*10)</f>
         <v>60</v>
       </c>
@@ -4338,22 +6477,22 @@
         <f>INT(SQRT((4*4)+(0*0))*10)</f>
         <v>40</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="26">
         <f>INT(SQRT((3*3)+(0*0))*10)</f>
         <v>30</v>
       </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="30">
+      <c r="H22" s="26">
         <f>INT(SQRT((POWER(H1-I1,2)+(POWER(A20-A20,2))))*10)</f>
         <v>10</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="28">
         <v>7</v>
       </c>
       <c r="B23" s="4"/>
@@ -4369,12 +6508,12 @@
         <f>E24+E25</f>
         <v>81</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="24">
         <f>F24+F25</f>
         <v>81</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="28">
+      <c r="H23" s="24">
         <f>H24+H25</f>
         <v>104</v>
       </c>
@@ -4386,8 +6525,8 @@
       <c r="K23" s="10"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="28"/>
       <c r="B24" s="6"/>
       <c r="C24" s="11">
         <v>60</v>
@@ -4398,11 +6537,11 @@
       <c r="E24" s="15">
         <v>40</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="25">
         <v>50</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="29">
+      <c r="H24" s="25">
         <v>90</v>
       </c>
       <c r="I24" s="11">
@@ -4412,10 +6551,10 @@
       <c r="K24" s="11"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="28"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <f>INT(SQRT((POWER(C1-I1,2)+(POWER(A23-A20,2))))*10)</f>
         <v>60</v>
       </c>
@@ -4427,16 +6566,16 @@
         <f>INT(SQRT((POWER(E1-I1,2)+(POWER(A23-A20,2))))*10)</f>
         <v>41</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="26">
         <f>INT(SQRT((POWER(F1-I1,2)+(POWER(A23-A20,2))))*10)</f>
         <v>31</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="30">
+      <c r="H25" s="26">
         <f>INT(SQRT((POWER(H1-I1,2)+(POWER(A23-A20,2))))*10)</f>
         <v>14</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <f>INT(SQRT((POWER(I1-I1,2)+(POWER(A23-A20,2))))*10)</f>
         <v>10</v>
       </c>
@@ -4444,42 +6583,42 @@
       <c r="K25" s="13"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="28">
         <v>8</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10">
-        <f>D27+D28</f>
+        <f t="shared" ref="D26:I26" si="1">D27+D28</f>
         <v>113</v>
       </c>
       <c r="E26" s="14">
-        <f>E27+E28</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="F26" s="28">
-        <f>F27+F28</f>
+      <c r="F26" s="24">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="G26" s="28">
-        <f>G27+G28</f>
+      <c r="G26" s="24">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="H26" s="28">
-        <f>H27+H28</f>
+      <c r="H26" s="24">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="I26" s="10">
-        <f>I27+I28</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="28"/>
       <c r="B27" s="6"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -4488,13 +6627,13 @@
       <c r="E27" s="15">
         <v>50</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="25">
         <v>60</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="25">
         <v>70</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="25">
         <v>80</v>
       </c>
       <c r="I27" s="11">
@@ -4504,11 +6643,11 @@
       <c r="K27" s="11"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="28"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19">
         <f>INT(SQRT((POWER(D1-I1,2)+(POWER(A26-A20,2))))*10)</f>
         <v>53</v>
       </c>
@@ -4516,19 +6655,19 @@
         <f>INT(SQRT((POWER(E1-I1,2)+(POWER(A26-A20,2))))*10)</f>
         <v>44</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="26">
         <f>INT(SQRT((POWER(F1-I1,2)+(POWER(A26-A20,2))))*10)</f>
         <v>36</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="26">
         <f>INT(SQRT((POWER(G1-I1,2)+(POWER(A26-A20,2))))*10)</f>
         <v>28</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="26">
         <f>INT(SQRT((POWER(H1-I1,2)+(POWER(A26-A20,2))))*10)</f>
         <v>22</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <f>INT(SQRT((POWER(I1-I1,2)+(POWER(A26-A20,2))))*10)</f>
         <v>20</v>
       </c>
@@ -4536,8 +6675,8 @@
       <c r="K28" s="13"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="28">
         <v>9</v>
       </c>
       <c r="B29" s="4"/>
@@ -4552,8 +6691,8 @@
       <c r="K29" s="4"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
@@ -4566,8 +6705,8 @@
       <c r="K30" s="6"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="28"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -4580,7 +6719,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -4615,8 +6754,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="28">
         <v>0</v>
       </c>
       <c r="B36" s="4"/>
@@ -4631,8 +6770,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="28"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
@@ -4645,8 +6784,8 @@
       <c r="K37" s="6"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17"/>
+    <row r="38" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="28"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -4659,110 +6798,108 @@
       <c r="K38" s="8"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="28">
         <v>1</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="18">
-        <f>C40+C41</f>
-        <v>78</v>
-      </c>
-      <c r="D39" s="35">
-        <f>D40+D41</f>
+      <c r="C39" s="17">
+        <f t="shared" ref="C39:I39" si="2">C40+C41</f>
+        <v>106</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="E39" s="35">
-        <f>E40+E41</f>
-        <v>92</v>
-      </c>
-      <c r="F39" s="35">
-        <f>F40+F41</f>
+      <c r="E39" s="14">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="G39" s="35">
-        <f>G40+G41</f>
+      <c r="G39" s="14">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="H39" s="18">
-        <f>H40+H41</f>
-        <v>50</v>
-      </c>
-      <c r="I39" s="18">
-        <f>I40+I41</f>
-        <v>50</v>
-      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="28"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="38">
+      <c r="C40" s="27">
+        <v>28</v>
+      </c>
+      <c r="D40" s="27">
         <v>24</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="15">
+        <v>20</v>
+      </c>
+      <c r="F40" s="15">
+        <v>24</v>
+      </c>
+      <c r="G40" s="15">
         <v>28</v>
       </c>
-      <c r="F40" s="36">
-        <v>24</v>
-      </c>
-      <c r="G40" s="36">
-        <v>28</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="H40" s="18">
+        <v>38</v>
+      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17"/>
+    <row r="41" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="28"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <f>INT(SQRT((POWER(C35-I35,2)+(POWER(A39-A54,2))))*10)</f>
         <v>78</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="19">
         <f>INT(SQRT((POWER(D35-I35,2)+(POWER(A39-A54,2))))*10)</f>
         <v>70</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="16">
         <f>INT(SQRT((POWER(E35-I35,2)+(POWER(A39-A54,2))))*10)</f>
         <v>64</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="16">
         <f>INT(SQRT((POWER(F35-I35,2)+(POWER(A39-A54,2))))*10)</f>
         <v>58</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="16">
         <f>INT(SQRT((POWER(G35-I35,2)+(POWER(A39-A54,2))))*10)</f>
         <v>53</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="19">
         <f>INT(SQRT((POWER(H35-I35,2)+(POWER(A39-A54,2))))*10)</f>
         <v>50</v>
       </c>
-      <c r="I41" s="20">
-        <f>INT(SQRT((POWER(I35-I35,2)+(POWER(A39-A54,2))))*10)</f>
-        <v>50</v>
-      </c>
+      <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="28">
         <v>2</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="35">
+      <c r="C42" s="17">
         <f>C43+C44</f>
         <v>96</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="14">
         <f>D43+D44</f>
         <v>78</v>
       </c>
@@ -4781,13 +6918,13 @@
       <c r="K42" s="10"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="28"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="38">
+      <c r="C43" s="27">
         <v>24</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="23">
         <v>14</v>
       </c>
       <c r="E43" s="15">
@@ -4803,14 +6940,14 @@
       <c r="K43" s="11"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17"/>
+    <row r="44" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="28"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="37">
+      <c r="C44" s="19">
         <f>INT(SQRT((POWER(C35-I35,2)+(POWER(A42-A54,2))))*10)</f>
         <v>72</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="16">
         <f>INT(SQRT((POWER(D35-I35,2)+(POWER(A42-A54,2))))*10)</f>
         <v>64</v>
       </c>
@@ -4829,20 +6966,20 @@
       <c r="K44" s="13"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="28">
         <v>3</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="35">
+      <c r="C45" s="17">
         <f>C46+C47</f>
         <v>87</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="20">
         <f>D46+D47</f>
         <v>68</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="29" t="s">
         <v>0</v>
       </c>
       <c r="F45" s="14">
@@ -4856,16 +6993,16 @@
       <c r="K45" s="10"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" s="28"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="36">
+      <c r="C46" s="18">
         <v>20</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>10</v>
       </c>
-      <c r="E46" s="40"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="15">
         <v>10</v>
       </c>
@@ -4876,18 +7013,18 @@
       <c r="K46" s="11"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
+    <row r="47" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="28"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="37">
+      <c r="C47" s="19">
         <f>INT(SQRT((POWER(C35-I35,2)+(POWER(A45-A54,2))))*10)</f>
         <v>67</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="22">
         <f>INT(SQRT((5*5)+(3*3))*10)</f>
         <v>58</v>
       </c>
-      <c r="E47" s="41"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="16">
         <f>INT(SQRT((POWER(F35-I35,2)+(POWER(A45-A54,2))))*10)</f>
         <v>42</v>
@@ -4899,12 +7036,12 @@
       <c r="K47" s="13"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="28">
         <v>4</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="35">
+      <c r="C48" s="17">
         <f>C49+C50</f>
         <v>87</v>
       </c>
@@ -4916,7 +7053,7 @@
         <f>E49+E50</f>
         <v>54</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="24">
         <f>F49+F50</f>
         <v>34</v>
       </c>
@@ -4927,10 +7064,10 @@
       <c r="K48" s="10"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="28"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36">
+      <c r="C49" s="18">
         <v>24</v>
       </c>
       <c r="D49" s="15">
@@ -4939,7 +7076,7 @@
       <c r="E49" s="15">
         <v>10</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="25">
         <v>14</v>
       </c>
       <c r="G49" s="6"/>
@@ -4949,10 +7086,10 @@
       <c r="K49" s="11"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="28"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="37">
+      <c r="C50" s="19">
         <f>INT(SQRT((POWER(C35-I35,2)+(POWER(A48-A54,2))))*10)</f>
         <v>63</v>
       </c>
@@ -4964,7 +7101,7 @@
         <f>INT(SQRT((4*4)+(2*2))*10)</f>
         <v>44</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="26">
         <f>INT(SQRT((POWER(F38-I38,2)+(POWER(A48-A54,2))))*10)</f>
         <v>20</v>
       </c>
@@ -4975,50 +7112,47 @@
       <c r="K50" s="13"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51" s="28">
         <v>5</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="35">
+      <c r="C51" s="17">
         <f>C52+C53</f>
         <v>88</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="14">
         <f>D52+D53</f>
         <v>74</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="14">
         <f>E52+E53</f>
-        <v>69</v>
-      </c>
-      <c r="F51" s="14">
+        <v>61</v>
+      </c>
+      <c r="F51" s="24">
         <f>F52+F53</f>
         <v>55</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="10">
-        <f>H52+H53</f>
-        <v>14</v>
-      </c>
+      <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52" s="28"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="36">
+      <c r="C52" s="18">
         <v>28</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="15">
         <v>24</v>
       </c>
-      <c r="E52" s="36">
-        <v>28</v>
-      </c>
-      <c r="F52" s="15">
+      <c r="E52" s="15">
+        <v>20</v>
+      </c>
+      <c r="F52" s="25">
         <v>24</v>
       </c>
       <c r="G52" s="6"/>
@@ -5028,192 +7162,203 @@
       <c r="K52" s="11"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="17"/>
+    <row r="53" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="28"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="37">
+      <c r="C53" s="19">
         <f>INT(SQRT((POWER(C35-I35,2)+(POWER(A51-A54,2))))*10)</f>
         <v>60</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="16">
         <f>INT(SQRT((5*5)+(1*1))*10)</f>
         <v>50</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="16">
         <f>INT(SQRT((4*4)+(1*1))*10)</f>
         <v>41</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="26">
         <f>INT(SQRT((3*3)+(1*1))*10)</f>
         <v>31</v>
       </c>
       <c r="G53" s="8"/>
-      <c r="H53" s="20">
-        <f>INT(SQRT((POWER(H35-I35,2)+(POWER(A51-A54,2))))*10)</f>
-        <v>14</v>
-      </c>
+      <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="28">
         <v>6</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <f>C55+C56</f>
-        <v>60</v>
-      </c>
-      <c r="D54" s="18">
+        <v>98</v>
+      </c>
+      <c r="D54" s="32">
         <f>D55+D56</f>
-        <v>50</v>
-      </c>
-      <c r="E54" s="35">
+        <v>84</v>
+      </c>
+      <c r="E54" s="14">
         <f>E55+E56</f>
-        <v>78</v>
-      </c>
-      <c r="F54" s="14">
+        <v>70</v>
+      </c>
+      <c r="F54" s="24">
         <f>F55+F56</f>
         <v>64</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="18">
+      <c r="H54" s="17">
         <f>H55+H56</f>
-        <v>10</v>
-      </c>
-      <c r="I54" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="29" t="s">
         <v>1</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" s="28"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="36">
+      <c r="C55" s="27">
         <v>38</v>
       </c>
-      <c r="F55" s="15">
+      <c r="D55" s="33">
         <v>34</v>
       </c>
+      <c r="E55" s="15">
+        <v>30</v>
+      </c>
+      <c r="F55" s="25">
+        <v>34</v>
+      </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="33"/>
+      <c r="H55" s="18">
+        <v>82</v>
+      </c>
+      <c r="I55" s="30"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="17"/>
+    <row r="56" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="28"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="20">
+      <c r="C56" s="19">
         <f>INT(SQRT((POWER(C35-I35,2)+(POWER(A54-A54,2))))*10)</f>
         <v>60</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="34">
         <f>INT(SQRT((POWER(D35-I35,2)+(POWER(A54-A54,2))))*10)</f>
         <v>50</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="16">
         <f>INT(SQRT((4*4)+(0*0))*10)</f>
         <v>40</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="26">
         <f>INT(SQRT((3*3)+(0*0))*10)</f>
         <v>30</v>
       </c>
       <c r="G56" s="8"/>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <f>INT(SQRT((POWER(H35-I35,2)+(POWER(A54-A54,2))))*10)</f>
         <v>10</v>
       </c>
-      <c r="I56" s="34"/>
+      <c r="I56" s="31"/>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A57" s="28">
         <v>7</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <f>C58+C59</f>
-        <v>60</v>
-      </c>
-      <c r="D57" s="18">
+        <v>108</v>
+      </c>
+      <c r="D57" s="17">
         <f>D58+D59</f>
-        <v>50</v>
-      </c>
-      <c r="E57" s="35">
+        <v>94</v>
+      </c>
+      <c r="E57" s="14">
         <f>E58+E59</f>
-        <v>89</v>
-      </c>
-      <c r="F57" s="35">
+        <v>81</v>
+      </c>
+      <c r="F57" s="24">
         <f>F58+F59</f>
         <v>75</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="18">
+      <c r="H57" s="24">
         <f>H58+H59</f>
-        <v>14</v>
-      </c>
-      <c r="I57" s="18">
+        <v>86</v>
+      </c>
+      <c r="I57" s="17">
         <f>I58+I59</f>
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A58" s="28"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="36">
+      <c r="C58" s="18">
         <v>48</v>
       </c>
-      <c r="F58" s="36">
+      <c r="D58" s="18">
         <v>44</v>
       </c>
+      <c r="E58" s="15">
+        <v>40</v>
+      </c>
+      <c r="F58" s="25">
+        <v>44</v>
+      </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
+      <c r="H58" s="25">
+        <v>72</v>
+      </c>
+      <c r="I58" s="18">
+        <v>82</v>
+      </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="17"/>
+    <row r="59" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="28"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <f>INT(SQRT((POWER(C35-I35,2)+(POWER(A57-A54,2))))*10)</f>
         <v>60</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <f>INT(SQRT((POWER(D35-I35,2)+(POWER(A57-A54,2))))*10)</f>
         <v>50</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="16">
         <f>INT(SQRT((POWER(E35-I35,2)+(POWER(A57-A54,2))))*10)</f>
         <v>41</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="26">
         <f>INT(SQRT((POWER(F35-I35,2)+(POWER(A57-A54,2))))*10)</f>
         <v>31</v>
       </c>
       <c r="G59" s="8"/>
-      <c r="H59" s="20">
+      <c r="H59" s="26">
         <f>INT(SQRT((POWER(H35-I35,2)+(POWER(A57-A54,2))))*10)</f>
         <v>14</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="19">
         <f>INT(SQRT((POWER(I35-I35,2)+(POWER(A57-A54,2))))*10)</f>
         <v>10</v>
       </c>
@@ -5221,79 +7366,91 @@
       <c r="K59" s="13"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A60" s="28">
         <v>8</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18">
-        <f>D61+D62</f>
-        <v>53</v>
-      </c>
-      <c r="E60" s="18">
-        <f>E61+E62</f>
-        <v>44</v>
-      </c>
-      <c r="F60" s="18">
-        <f>F61+F62</f>
-        <v>36</v>
-      </c>
-      <c r="G60" s="18">
-        <f>G61+G62</f>
-        <v>28</v>
-      </c>
-      <c r="H60" s="18">
-        <f>H61+H62</f>
-        <v>22</v>
-      </c>
-      <c r="I60" s="18">
-        <f>I61+I62</f>
-        <v>20</v>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17">
+        <f t="shared" ref="D60:I60" si="3">D61+D62</f>
+        <v>107</v>
+      </c>
+      <c r="E60" s="17">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F60" s="17">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="G60" s="24">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="H60" s="17">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="I60" s="17">
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" s="28"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18">
+        <v>54</v>
+      </c>
+      <c r="E61" s="18">
+        <v>50</v>
+      </c>
+      <c r="F61" s="18">
+        <v>54</v>
+      </c>
+      <c r="G61" s="25">
+        <v>58</v>
+      </c>
+      <c r="H61" s="18">
+        <v>68</v>
+      </c>
+      <c r="I61" s="18">
+        <v>78</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="17"/>
+    <row r="62" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="28"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19">
         <f>INT(SQRT((POWER(D35-I35,2)+(POWER(A60-A54,2))))*10)</f>
         <v>53</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="19">
         <f>INT(SQRT((POWER(E35-I35,2)+(POWER(A60-A54,2))))*10)</f>
         <v>44</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="19">
         <f>INT(SQRT((POWER(F35-I35,2)+(POWER(A60-A54,2))))*10)</f>
         <v>36</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="26">
         <f>INT(SQRT((POWER(G35-I35,2)+(POWER(A60-A54,2))))*10)</f>
         <v>28</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="19">
         <f>INT(SQRT((POWER(H35-I35,2)+(POWER(A60-A54,2))))*10)</f>
         <v>22</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="19">
         <f>INT(SQRT((POWER(I35-I35,2)+(POWER(A60-A54,2))))*10)</f>
         <v>20</v>
       </c>
@@ -5301,8 +7458,8 @@
       <c r="K62" s="13"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" s="28">
         <v>9</v>
       </c>
       <c r="B63" s="4"/>
@@ -5317,8 +7474,8 @@
       <c r="K63" s="4"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" s="28"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
@@ -5331,8 +7488,8 @@
       <c r="K64" s="6"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="17"/>
+    <row r="65" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="28"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -5347,6 +7504,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A63:A65"/>
@@ -5357,20 +7528,6 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A56"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
